--- a/datadriven/src/Tata.xlsx
+++ b/datadriven/src/Tata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyotheeswar\eclipse-workspace\Framework\datadriven\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyotheeswar\git\datadriven\datadriven\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C3363-69CC-4E9A-A0C1-23C2D92EDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52829C-42EA-4766-929F-D23A05E86E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2700" windowWidth="21585" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Iblesoft@123</t>
   </si>
   <si>
-    <t>Iblesoft@124</t>
-  </si>
-  <si>
     <t>Iblesoft@125</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>Iblesoft@132</t>
   </si>
   <si>
-    <t>IBLEC1157</t>
-  </si>
-  <si>
-    <t>IBLEC1158</t>
-  </si>
-  <si>
     <t>IBLEC1159</t>
   </si>
   <si>
@@ -101,6 +92,15 @@
   </si>
   <si>
     <t>pic</t>
+  </si>
+  <si>
+    <t>IBLEC1086</t>
+  </si>
+  <si>
+    <t>IBLEC1087</t>
+  </si>
+  <si>
+    <t>Boxon@123</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -458,84 +458,85 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{086C4E6A-2FD4-43A0-B6D7-6578F4C31A68}"/>
-    <hyperlink ref="B2" r:id="rId2" display="Iblesoft@123" xr:uid="{224D4080-F007-4479-87EF-3BDF705A2802}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{224D4080-F007-4479-87EF-3BDF705A2802}"/>
     <hyperlink ref="B3:B10" r:id="rId3" display="Iblesoft@123" xr:uid="{A27ECCC9-C697-4701-9C4E-8CF0C63C44D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F8E75-2782-4428-87BE-D11C84B44BDC}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>1235263</v>
@@ -567,10 +568,10 @@
         <v>45251</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -585,7 +586,7 @@
         <v>2561</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L1">
         <v>2</v>
